--- a/target/test-classes/warehousePortal_testData_updated.xlsx
+++ b/target/test-classes/warehousePortal_testData_updated.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snapbizz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3D7147-54D4-4251-B38E-60FC7AC87CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3170C3DB-D416-4144-84C7-9FCE5392C9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="productSheet" sheetId="1" r:id="rId1"/>
     <sheet name="wareHouseProducts" sheetId="2" r:id="rId2"/>
+    <sheet name="distributorSheet" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="147">
   <si>
     <t>Barcode</t>
   </si>
@@ -278,9 +279,6 @@
     <t>1744192829539</t>
   </si>
   <si>
-    <t>Chawal Bpt Bawarchi</t>
-  </si>
-  <si>
     <t>38</t>
   </si>
   <si>
@@ -330,16 +328,172 @@
   </si>
   <si>
     <t>prod_2</t>
+  </si>
+  <si>
+    <t>Chawal Real Gold</t>
+  </si>
+  <si>
+    <t>Chawal  Bawarchi</t>
+  </si>
+  <si>
+    <t>Channa masala</t>
+  </si>
+  <si>
+    <t>Parimal Basamathi Rice</t>
+  </si>
+  <si>
+    <t>Parimal Normal Rice</t>
+  </si>
+  <si>
+    <t>PhoneNo</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Gstin</t>
+  </si>
+  <si>
+    <t>LandlineNo</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>Antony</t>
+  </si>
+  <si>
+    <t>3456789</t>
+  </si>
+  <si>
+    <t>3126789</t>
+  </si>
+  <si>
+    <t>3986789</t>
+  </si>
+  <si>
+    <t>3546789</t>
+  </si>
+  <si>
+    <t>3876789</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>29AAACH7409R1ZX</t>
+  </si>
+  <si>
+    <t>36AAACH7409R1Z2</t>
+  </si>
+  <si>
+    <t>33AAACH7409R1Z8</t>
+  </si>
+  <si>
+    <t>27AAACH7409R1Z1</t>
+  </si>
+  <si>
+    <t>2345671</t>
+  </si>
+  <si>
+    <t>2367671</t>
+  </si>
+  <si>
+    <t>2343471</t>
+  </si>
+  <si>
+    <t>2340971</t>
+  </si>
+  <si>
+    <t>allen@gmail.com</t>
+  </si>
+  <si>
+    <t>david@gmail.com</t>
+  </si>
+  <si>
+    <t>james@gmail.com</t>
+  </si>
+  <si>
+    <t>steven@gmail.com</t>
+  </si>
+  <si>
+    <t>antony@gmail.com</t>
+  </si>
+  <si>
+    <t>2875641</t>
+  </si>
+  <si>
+    <t>Invoice num</t>
+  </si>
+  <si>
+    <t>ABC1234</t>
+  </si>
+  <si>
+    <t>BCD1234</t>
+  </si>
+  <si>
+    <t>CDE1234</t>
+  </si>
+  <si>
+    <t>FGH1234</t>
+  </si>
+  <si>
+    <t>IJK1234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF767676"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF474747"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -362,15 +516,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -685,7 +844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -986,7 +1145,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
@@ -1189,7 +1348,7 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,7 +1582,7 @@
         <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
         <v>71</v>
@@ -1494,7 +1653,7 @@
         <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
         <v>71</v>
@@ -1512,19 +1671,19 @@
         <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
         <v>34</v>
@@ -1562,10 +1721,10 @@
         <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
         <v>71</v>
@@ -1583,19 +1742,19 @@
         <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
         <v>34</v>
@@ -1627,16 +1786,16 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
       </c>
       <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
         <v>90</v>
-      </c>
-      <c r="D7" t="s">
-        <v>91</v>
       </c>
       <c r="E7" t="s">
         <v>71</v>
@@ -1654,19 +1813,19 @@
         <v>55</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
         <v>34</v>
@@ -1698,16 +1857,16 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E8" t="s">
         <v>71</v>
@@ -1725,19 +1884,19 @@
         <v>55</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
         <v>34</v>
@@ -1769,16 +1928,16 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="E9" t="s">
         <v>71</v>
@@ -1796,13 +1955,13 @@
         <v>55</v>
       </c>
       <c r="J9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M9" t="s">
         <v>34</v>
@@ -1840,16 +1999,16 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
       </c>
       <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
         <v>99</v>
-      </c>
-      <c r="D10" t="s">
-        <v>100</v>
       </c>
       <c r="E10" t="s">
         <v>71</v>
@@ -1867,19 +2026,19 @@
         <v>55</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O10" t="s">
         <v>34</v>
@@ -1912,4 +2071,172 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BE4628-3712-44B2-ACB3-BDAE140FFE41}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{17149269-FC02-4168-8720-08F9C02EEB72}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{EF4E51CE-8E73-41B9-8B92-8C6823588981}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{518A04C0-1B51-41FE-8AD2-31D9B03F46A5}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{F3883173-EC2C-40E3-BF6A-5FB92E8375C4}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{1838BF5F-8B98-4EF1-A73C-AA3D365F1CB8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/target/test-classes/warehousePortal_testData_updated.xlsx
+++ b/target/test-classes/warehousePortal_testData_updated.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snapbizz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3170C3DB-D416-4144-84C7-9FCE5392C9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCB7DD0-93F2-421F-A3B1-0B532AAB471D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="productSheet" sheetId="1" r:id="rId1"/>
     <sheet name="wareHouseProducts" sheetId="2" r:id="rId2"/>
     <sheet name="distributorSheet" sheetId="3" r:id="rId3"/>
+    <sheet name="whportal_sample_upload data" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="256">
   <si>
     <t>Barcode</t>
   </si>
@@ -150,36 +151,18 @@
     <t>Dals &amp; Pulses</t>
   </si>
   <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>7500</t>
-  </si>
-  <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>7100</t>
-  </si>
-  <si>
     <t>2025-02-01T00:00:00.000Z</t>
   </si>
   <si>
     <t>9.22337e+18</t>
   </si>
   <si>
-    <t>prod_1</t>
-  </si>
-  <si>
     <t>Others</t>
   </si>
   <si>
     <t>Miscellaneous</t>
   </si>
   <si>
-    <t>109</t>
-  </si>
-  <si>
     <t>100</t>
   </si>
   <si>
@@ -198,12 +181,6 @@
     <t>2025-06-03T00:00:00.000Z</t>
   </si>
   <si>
-    <t>Prod_P</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
     <t>200</t>
   </si>
   <si>
@@ -216,9 +193,6 @@
     <t>2025-05-14T00:00:00.000Z</t>
   </si>
   <si>
-    <t>PP_2</t>
-  </si>
-  <si>
     <t>50</t>
   </si>
   <si>
@@ -327,9 +301,6 @@
     <t>120</t>
   </si>
   <si>
-    <t>prod_2</t>
-  </si>
-  <si>
     <t>Chawal Real Gold</t>
   </si>
   <si>
@@ -463,6 +434,363 @@
   </si>
   <si>
     <t>IJK1234</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>APEX OIL CANE 1000 ML</t>
+  </si>
+  <si>
+    <t>APEX MORDEN MUG 300 ML</t>
+  </si>
+  <si>
+    <t>Plastic</t>
+  </si>
+  <si>
+    <t>APEX MOP PIPE SET COMMANDO</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>APEX MOCHA MUG 250ML</t>
+  </si>
+  <si>
+    <t>APEX MICRO SERVING BOWL SET</t>
+  </si>
+  <si>
+    <t>Household Aids</t>
+  </si>
+  <si>
+    <t>APEX MAJESTIC PLUS LIGHTER WITH KNIFE</t>
+  </si>
+  <si>
+    <t>APEX MAJESTIC GAS LIGHTER</t>
+  </si>
+  <si>
+    <t>APEX L POTATO MASHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APEX JERRY SMALL LUNCH </t>
+  </si>
+  <si>
+    <t>APEX ICE CREAM SCOOPER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APEX HOT MATE </t>
+  </si>
+  <si>
+    <t>GLARE HANDY PEELER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APEX GAS TROLLEY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">APEX GAS LIGHTER WITH KNIFE </t>
+  </si>
+  <si>
+    <t>APEX GAS LIGHTER COLOUR</t>
+  </si>
+  <si>
+    <t>APEX FULL ROUND SAMSI STEEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APEX FRUIT FORK </t>
+  </si>
+  <si>
+    <t>APEX FLOOR WIPER 16 INCH</t>
+  </si>
+  <si>
+    <t>APEX FLOOR WIPER  20 INCH</t>
+  </si>
+  <si>
+    <t>APEX FAMILY GLASS</t>
+  </si>
+  <si>
+    <t>APEX DRY FRUIT GRINDER</t>
+  </si>
+  <si>
+    <t>APEX DOUBLE GRIP TPE BLADE WIPPER</t>
+  </si>
+  <si>
+    <t>APEX CUTLERY SET WITH SALT N PEPER</t>
+  </si>
+  <si>
+    <t>APEX CHOPPING BOARD RUF TUF</t>
+  </si>
+  <si>
+    <t>APEX CHEF KNIFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APEX CARROT JUICER </t>
+  </si>
+  <si>
+    <t>APEX BATHROOM WIPER 12 INCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APEX BABY FEEDING 240 ML SS BOTTLE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">APEX ACRYLIC SALT N PEPPER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">APEX ACRYLIC JUG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">APEX 3X PICKEL SET </t>
+  </si>
+  <si>
+    <t>APER JERRY CONTAINER SMALL</t>
+  </si>
+  <si>
+    <t>ANUPAM SAUCE PAN 18 G 13</t>
+  </si>
+  <si>
+    <t>ANUPAM SAUCE PAN 18 G 12</t>
+  </si>
+  <si>
+    <t>anti skit MATT ROLL 5 MTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANJALI PEELER NO 3 </t>
+  </si>
+  <si>
+    <t>Non-Stick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANJALI NONSTICK 7 PC PAN </t>
+  </si>
+  <si>
+    <t>ANJALI FLARE GAS LIGHTER</t>
+  </si>
+  <si>
+    <t>ANJALI ESPARK GAS LIGHTER</t>
+  </si>
+  <si>
+    <t>AMARJYOTI STEEL JUG FANCY</t>
+  </si>
+  <si>
+    <t>ALUMNIUM BHAGONA 3 210</t>
+  </si>
+  <si>
+    <t>ALUMINUM IDLI STAND 3 PLATE</t>
+  </si>
+  <si>
+    <t>ALUMINIUM IDLI STAD 4 PLATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALUMINIUM BHAGONA 360 </t>
+  </si>
+  <si>
+    <t>ALUMINIUM BHAGONA 250</t>
+  </si>
+  <si>
+    <t>Carpets</t>
+  </si>
+  <si>
+    <t>ALPINE DOOR MAT 330 RUBBER</t>
+  </si>
+  <si>
+    <t>ALMUNIUM KHAL BATTA NO 1</t>
+  </si>
+  <si>
+    <t>ALMUNIUM KHAL BATTA 2</t>
+  </si>
+  <si>
+    <t>ALMUNIUM KADIA 2 NO SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALMUNIUM KADAI 7 NO </t>
+  </si>
+  <si>
+    <t>ALMUNIUM KADAI 6 NO</t>
+  </si>
+  <si>
+    <t>ALMUNIUM KADAI 5 NO</t>
+  </si>
+  <si>
+    <t>ALMUNIUM KADAI 4 NO</t>
+  </si>
+  <si>
+    <t>ALMUNIUM KADAI 3 NO SP</t>
+  </si>
+  <si>
+    <t>ALMUNIUM BHAGONA PRICE 650</t>
+  </si>
+  <si>
+    <t>ALMUNIUM BHAGONA 420</t>
+  </si>
+  <si>
+    <t>ALMUNIUM BHAGONA 4 160</t>
+  </si>
+  <si>
+    <t>Appliances</t>
+  </si>
+  <si>
+    <t>ALMUNIUM BHAGONA 2 290</t>
+  </si>
+  <si>
+    <t>ALMUNIUM BHAGONA 1 340</t>
+  </si>
+  <si>
+    <t>ALIMUNIUM KADAI 1 SP</t>
+  </si>
+  <si>
+    <t>ALIMUNIUM HANGER SET 6 PC SET</t>
+  </si>
+  <si>
+    <t>ALIMUNIUM GUJIYA MAKER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL SAUCE PAN IB 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL SAUCE PAN 12 IB </t>
+  </si>
+  <si>
+    <t>AKG STEEL PALTA CURVE</t>
+  </si>
+  <si>
+    <t>AKG STEEL LOTA 9</t>
+  </si>
+  <si>
+    <t>AKG BABY FORK.</t>
+  </si>
+  <si>
+    <t>AKG BABY FORK</t>
+  </si>
+  <si>
+    <t>AJANTHA DONGA SINGLE</t>
+  </si>
+  <si>
+    <t>AIRIN 51 PC STEEL DINNER SET SILVER LINE</t>
+  </si>
+  <si>
+    <t>AIRAN DONGA SET 3</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>AGARWATI FANCY STAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADORSIL BHOGAN THALI 5 IN 1 </t>
+  </si>
+  <si>
+    <t>ADOROSIL SNACK PLATE MINI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADOROSIL SAUCE PAN SANDWICH 15 </t>
+  </si>
+  <si>
+    <t>ADOROSIL SAUCE PAN 20 G 11</t>
+  </si>
+  <si>
+    <t>ADOROSIL SAUCE PAN 18 G 12</t>
+  </si>
+  <si>
+    <t>ADOROSIL SAUCE PAN 18 G 11</t>
+  </si>
+  <si>
+    <t>ADOROSIL SANDWICH SOUCE PAN 2 B</t>
+  </si>
+  <si>
+    <t>ADOROSIL SANDWICH SAUCE PAN BIG 12 B</t>
+  </si>
+  <si>
+    <t>ADOROSIL ROUND PAV BHAJI PLATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADOROSIL PAV BHAJI THALI </t>
+  </si>
+  <si>
+    <t>ADOROSIL OVEL PAV BHAJI PLATE</t>
+  </si>
+  <si>
+    <t>ADOROSIL 5 IN 1 SQR BHOGAN THALI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADOROSIL 13 NO. THALI </t>
+  </si>
+  <si>
+    <t>ADDOX MILK MUG WITH LID</t>
+  </si>
+  <si>
+    <t>ADDOX BOWL SET CLEAR</t>
+  </si>
+  <si>
+    <t>ADDOX 2 PC MUG SET 380 ML</t>
+  </si>
+  <si>
+    <t>ACRYLIC WOOD BELAN FANCY</t>
+  </si>
+  <si>
+    <t>ACRYLIC STRONG JAR BIG</t>
+  </si>
+  <si>
+    <t>ACRYLIC SQR SHELF 12 INCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACRYLIC SNACK BOX AIR TIGHT FANCY </t>
+  </si>
+  <si>
+    <t>ACRYLIC SIPPER UNICON SIMPLE</t>
+  </si>
+  <si>
+    <t>ACRYLIC SIPPER SPRING MODLE</t>
+  </si>
+  <si>
+    <t>ACRYLIC SIPPER KAN SIMPLE</t>
+  </si>
+  <si>
+    <t>ACRYLIC SIPPER DIAMOND TOUCH</t>
+  </si>
+  <si>
+    <t>ACRYLIC CHAKLA 10 NO</t>
+  </si>
+  <si>
+    <t>ACRYLIC BELAN FANCY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acrelic Sipper 400ML FANCY </t>
+  </si>
+  <si>
+    <t>ACRALIC 3PC JAR SET SEASONING POT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACC TRAY GLASS </t>
+  </si>
+  <si>
+    <t>ACC TRAY FANCY</t>
+  </si>
+  <si>
+    <t>Acrylic Material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REAL MUG SET </t>
+  </si>
+  <si>
+    <t>STEEL PLATE FS 12</t>
+  </si>
+  <si>
+    <t>ShortName</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>Apple_</t>
+  </si>
+  <si>
+    <t>Orange_</t>
+  </si>
+  <si>
+    <t>Pomo_</t>
+  </si>
+  <si>
+    <t>Grapes_</t>
   </si>
 </sst>
 </file>
@@ -844,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,8 +1283,8 @@
       <c r="J2" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
-        <v>55</v>
+      <c r="K2" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="L2" t="s">
         <v>33</v>
@@ -1023,23 +1351,23 @@
       <c r="J3" t="s">
         <v>32</v>
       </c>
-      <c r="K3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" t="s">
-        <v>45</v>
+      <c r="K3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="s">
         <v>34</v>
@@ -1051,7 +1379,7 @@
         <v>35</v>
       </c>
       <c r="U3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="V3" t="s">
         <v>36</v>
@@ -1068,58 +1396,58 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" t="s">
         <v>48</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" t="s">
-        <v>34</v>
-      </c>
-      <c r="U4" t="s">
-        <v>54</v>
       </c>
       <c r="V4" t="s">
         <v>36</v>
@@ -1136,40 +1464,40 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>253</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
       </c>
       <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" t="s">
         <v>50</v>
       </c>
-      <c r="J5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
-      </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="O5" t="s">
         <v>34</v>
@@ -1187,7 +1515,7 @@
         <v>34</v>
       </c>
       <c r="U5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="V5" t="s">
         <v>36</v>
@@ -1204,46 +1532,46 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>254</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s">
         <v>32</v>
       </c>
-      <c r="K6" t="s">
-        <v>59</v>
+      <c r="K6" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="Q6" t="s">
         <v>34</v>
@@ -1255,10 +1583,10 @@
         <v>34</v>
       </c>
       <c r="U6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="V6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="W6" t="s">
         <v>34</v>
@@ -1272,40 +1600,40 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>255</v>
       </c>
       <c r="E7" t="s">
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
         <v>32</v>
       </c>
-      <c r="K7" t="s">
-        <v>65</v>
+      <c r="K7" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="L7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="M7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="N7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="O7" t="s">
         <v>34</v>
@@ -1431,46 +1759,46 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
         <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="M2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="N2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="O2" t="s">
         <v>34</v>
@@ -1482,13 +1810,13 @@
         <v>34</v>
       </c>
       <c r="R2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="S2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="T2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="U2" t="s">
         <v>34</v>
@@ -1502,46 +1830,46 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
         <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="L3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="M3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="N3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="O3" t="s">
         <v>34</v>
@@ -1553,13 +1881,13 @@
         <v>34</v>
       </c>
       <c r="R3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="S3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="T3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="U3" t="s">
         <v>34</v>
@@ -1573,46 +1901,46 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="N4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
         <v>34</v>
@@ -1624,13 +1952,13 @@
         <v>34</v>
       </c>
       <c r="R4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="S4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="T4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="U4" t="s">
         <v>34</v>
@@ -1644,46 +1972,46 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
         <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="N5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
         <v>34</v>
@@ -1695,13 +2023,13 @@
         <v>34</v>
       </c>
       <c r="R5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="S5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="T5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="U5" t="s">
         <v>34</v>
@@ -1715,46 +2043,46 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
         <v>77</v>
       </c>
-      <c r="C6" t="s">
-        <v>86</v>
-      </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H6" t="s">
         <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
         <v>34</v>
@@ -1766,13 +2094,13 @@
         <v>34</v>
       </c>
       <c r="R6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="S6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="T6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="U6" t="s">
         <v>34</v>
@@ -1786,46 +2114,46 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
         <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H7" t="s">
         <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="O7" t="s">
         <v>34</v>
@@ -1837,13 +2165,13 @@
         <v>34</v>
       </c>
       <c r="R7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="S7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="T7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="U7" t="s">
         <v>34</v>
@@ -1857,46 +2185,46 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
         <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
         <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="M8" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="O8" t="s">
         <v>34</v>
@@ -1908,13 +2236,13 @@
         <v>34</v>
       </c>
       <c r="R8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="S8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="T8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="U8" t="s">
         <v>34</v>
@@ -1928,40 +2256,40 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
         <v>96</v>
       </c>
-      <c r="D9" t="s">
-        <v>106</v>
-      </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
         <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
         <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="L9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="M9" t="s">
         <v>34</v>
@@ -1979,13 +2307,13 @@
         <v>34</v>
       </c>
       <c r="R9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="S9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="T9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="U9" t="s">
         <v>34</v>
@@ -1999,46 +2327,46 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
         <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
         <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="M10" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="N10" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O10" t="s">
         <v>34</v>
@@ -2050,13 +2378,13 @@
         <v>34</v>
       </c>
       <c r="R10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="S10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="T10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="U10" t="s">
         <v>34</v>
@@ -2077,8 +2405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BE4628-3712-44B2-ACB3-BDAE140FFE41}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2096,137 +2424,137 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" t="s">
-        <v>122</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" t="s">
-        <v>123</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" t="s">
-        <v>124</v>
-      </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" t="s">
         <v>120</v>
       </c>
-      <c r="C5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" t="s">
-        <v>130</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" t="s">
-        <v>126</v>
-      </c>
       <c r="D6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2239,4 +2567,4045 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229D08F0-67AB-43BE-856A-4B61C8EE53DD}">
+  <dimension ref="A1:X105"/>
+  <sheetViews>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="J122" sqref="J122"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>250</v>
+      </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>347</v>
+      </c>
+      <c r="B2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2">
+        <v>240</v>
+      </c>
+      <c r="G2">
+        <v>120</v>
+      </c>
+      <c r="H2">
+        <v>210</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>7323</v>
+      </c>
+      <c r="K2">
+        <v>240</v>
+      </c>
+      <c r="L2">
+        <v>240</v>
+      </c>
+      <c r="Q2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>371</v>
+      </c>
+      <c r="B3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3">
+        <v>180</v>
+      </c>
+      <c r="G3">
+        <v>95</v>
+      </c>
+      <c r="H3">
+        <v>150</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>3924</v>
+      </c>
+      <c r="K3">
+        <v>180</v>
+      </c>
+      <c r="L3">
+        <v>180</v>
+      </c>
+      <c r="Q3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>11111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <v>190</v>
+      </c>
+      <c r="G4">
+        <v>85</v>
+      </c>
+      <c r="H4">
+        <v>165</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>7013</v>
+      </c>
+      <c r="K4">
+        <v>190</v>
+      </c>
+      <c r="L4">
+        <v>190</v>
+      </c>
+      <c r="Q4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>11112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5">
+        <v>120</v>
+      </c>
+      <c r="G5">
+        <v>55</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>7013</v>
+      </c>
+      <c r="K5">
+        <v>120</v>
+      </c>
+      <c r="L5">
+        <v>120</v>
+      </c>
+      <c r="Q5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>11113</v>
+      </c>
+      <c r="B6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>980</v>
+      </c>
+      <c r="G6">
+        <v>460</v>
+      </c>
+      <c r="H6">
+        <v>825</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>392410</v>
+      </c>
+      <c r="K6">
+        <v>980</v>
+      </c>
+      <c r="L6">
+        <v>980</v>
+      </c>
+      <c r="Q6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11114</v>
+      </c>
+      <c r="B7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7">
+        <v>485</v>
+      </c>
+      <c r="G7">
+        <v>190</v>
+      </c>
+      <c r="H7">
+        <v>388</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>3924</v>
+      </c>
+      <c r="K7">
+        <v>485</v>
+      </c>
+      <c r="L7">
+        <v>485</v>
+      </c>
+      <c r="Q7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>11115</v>
+      </c>
+      <c r="B8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8">
+        <v>550</v>
+      </c>
+      <c r="G8">
+        <v>250</v>
+      </c>
+      <c r="H8">
+        <v>477</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>3926</v>
+      </c>
+      <c r="K8">
+        <v>550</v>
+      </c>
+      <c r="L8">
+        <v>550</v>
+      </c>
+      <c r="Q8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>11116</v>
+      </c>
+      <c r="B9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <v>660</v>
+      </c>
+      <c r="G9">
+        <v>320</v>
+      </c>
+      <c r="H9">
+        <v>600</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>3926</v>
+      </c>
+      <c r="K9">
+        <v>660</v>
+      </c>
+      <c r="L9">
+        <v>660</v>
+      </c>
+      <c r="Q9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11117</v>
+      </c>
+      <c r="B10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <v>425</v>
+      </c>
+      <c r="G10">
+        <v>160</v>
+      </c>
+      <c r="H10">
+        <v>345</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>392410</v>
+      </c>
+      <c r="K10">
+        <v>425</v>
+      </c>
+      <c r="L10">
+        <v>425</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11118</v>
+      </c>
+      <c r="B11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11">
+        <v>425</v>
+      </c>
+      <c r="G11">
+        <v>185</v>
+      </c>
+      <c r="H11">
+        <v>355</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>392410</v>
+      </c>
+      <c r="K11">
+        <v>425</v>
+      </c>
+      <c r="L11">
+        <v>425</v>
+      </c>
+      <c r="Q11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11119</v>
+      </c>
+      <c r="B12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12">
+        <v>485</v>
+      </c>
+      <c r="G12">
+        <v>250</v>
+      </c>
+      <c r="H12">
+        <v>415</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>392410</v>
+      </c>
+      <c r="K12">
+        <v>485</v>
+      </c>
+      <c r="L12">
+        <v>485</v>
+      </c>
+      <c r="Q12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11120</v>
+      </c>
+      <c r="B13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13">
+        <v>365</v>
+      </c>
+      <c r="G13">
+        <v>165</v>
+      </c>
+      <c r="H13">
+        <v>289</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>392410</v>
+      </c>
+      <c r="K13">
+        <v>365</v>
+      </c>
+      <c r="L13">
+        <v>365</v>
+      </c>
+      <c r="Q13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11121</v>
+      </c>
+      <c r="B14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14">
+        <v>2390</v>
+      </c>
+      <c r="G14">
+        <v>1125</v>
+      </c>
+      <c r="H14">
+        <v>1970</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>3924</v>
+      </c>
+      <c r="K14">
+        <v>2390</v>
+      </c>
+      <c r="L14">
+        <v>2390</v>
+      </c>
+      <c r="Q14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11122</v>
+      </c>
+      <c r="B15" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15">
+        <v>354</v>
+      </c>
+      <c r="G15">
+        <v>176</v>
+      </c>
+      <c r="H15">
+        <v>310</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>392410</v>
+      </c>
+      <c r="K15">
+        <v>354</v>
+      </c>
+      <c r="L15">
+        <v>354</v>
+      </c>
+      <c r="Q15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>11123</v>
+      </c>
+      <c r="B16" t="s">
+        <v>234</v>
+      </c>
+      <c r="D16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16">
+        <v>485</v>
+      </c>
+      <c r="G16">
+        <v>240</v>
+      </c>
+      <c r="H16">
+        <v>385</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>392410</v>
+      </c>
+      <c r="K16">
+        <v>485</v>
+      </c>
+      <c r="L16">
+        <v>485</v>
+      </c>
+      <c r="Q16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11124</v>
+      </c>
+      <c r="B17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17">
+        <v>550</v>
+      </c>
+      <c r="G17">
+        <v>250</v>
+      </c>
+      <c r="H17">
+        <v>477</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>3923</v>
+      </c>
+      <c r="K17">
+        <v>550</v>
+      </c>
+      <c r="L17">
+        <v>550</v>
+      </c>
+      <c r="Q17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>11125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18">
+        <v>390</v>
+      </c>
+      <c r="G18">
+        <v>135</v>
+      </c>
+      <c r="H18">
+        <v>320</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>7013</v>
+      </c>
+      <c r="K18">
+        <v>390</v>
+      </c>
+      <c r="L18">
+        <v>390</v>
+      </c>
+      <c r="Q18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>11126</v>
+      </c>
+      <c r="B19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19">
+        <v>625</v>
+      </c>
+      <c r="G19">
+        <v>315</v>
+      </c>
+      <c r="H19">
+        <v>545</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>7013</v>
+      </c>
+      <c r="K19">
+        <v>625</v>
+      </c>
+      <c r="L19">
+        <v>625</v>
+      </c>
+      <c r="Q19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>11127</v>
+      </c>
+      <c r="B20" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20">
+        <v>350</v>
+      </c>
+      <c r="G20">
+        <v>165</v>
+      </c>
+      <c r="H20">
+        <v>270</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>7013</v>
+      </c>
+      <c r="K20">
+        <v>350</v>
+      </c>
+      <c r="L20">
+        <v>350</v>
+      </c>
+      <c r="Q20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>11128</v>
+      </c>
+      <c r="B21" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21">
+        <v>280</v>
+      </c>
+      <c r="G21">
+        <v>125</v>
+      </c>
+      <c r="H21">
+        <v>225</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>7323</v>
+      </c>
+      <c r="K21">
+        <v>280</v>
+      </c>
+      <c r="L21">
+        <v>280</v>
+      </c>
+      <c r="Q21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>11129</v>
+      </c>
+      <c r="B22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22">
+        <v>335</v>
+      </c>
+      <c r="G22">
+        <v>115</v>
+      </c>
+      <c r="H22">
+        <v>251</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>7323</v>
+      </c>
+      <c r="K22">
+        <v>335</v>
+      </c>
+      <c r="L22">
+        <v>335</v>
+      </c>
+      <c r="Q22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>11130</v>
+      </c>
+      <c r="B23" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23">
+        <v>200</v>
+      </c>
+      <c r="G23">
+        <v>65</v>
+      </c>
+      <c r="H23">
+        <v>160</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>7323</v>
+      </c>
+      <c r="K23">
+        <v>200</v>
+      </c>
+      <c r="L23">
+        <v>200</v>
+      </c>
+      <c r="Q23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>11131</v>
+      </c>
+      <c r="B24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24">
+        <v>220</v>
+      </c>
+      <c r="G24">
+        <v>75</v>
+      </c>
+      <c r="H24">
+        <v>176</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>7323</v>
+      </c>
+      <c r="K24">
+        <v>220</v>
+      </c>
+      <c r="L24">
+        <v>220</v>
+      </c>
+      <c r="Q24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>11132</v>
+      </c>
+      <c r="B25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D25" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25">
+        <v>220</v>
+      </c>
+      <c r="G25">
+        <v>75</v>
+      </c>
+      <c r="H25">
+        <v>176</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>7323</v>
+      </c>
+      <c r="K25">
+        <v>220</v>
+      </c>
+      <c r="L25">
+        <v>220</v>
+      </c>
+      <c r="Q25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>11133</v>
+      </c>
+      <c r="B26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26">
+        <v>790</v>
+      </c>
+      <c r="G26">
+        <v>290</v>
+      </c>
+      <c r="H26">
+        <v>688</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>7323</v>
+      </c>
+      <c r="K26">
+        <v>790</v>
+      </c>
+      <c r="L26">
+        <v>790</v>
+      </c>
+      <c r="Q26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>11134</v>
+      </c>
+      <c r="B27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27">
+        <v>645</v>
+      </c>
+      <c r="G27">
+        <v>255</v>
+      </c>
+      <c r="H27">
+        <v>565</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>7323</v>
+      </c>
+      <c r="K27">
+        <v>645</v>
+      </c>
+      <c r="L27">
+        <v>645</v>
+      </c>
+      <c r="Q27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>11135</v>
+      </c>
+      <c r="B28" t="s">
+        <v>222</v>
+      </c>
+      <c r="D28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28">
+        <v>630</v>
+      </c>
+      <c r="G28">
+        <v>240</v>
+      </c>
+      <c r="H28">
+        <v>559</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>7323</v>
+      </c>
+      <c r="K28">
+        <v>630</v>
+      </c>
+      <c r="L28">
+        <v>630</v>
+      </c>
+      <c r="Q28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>11136</v>
+      </c>
+      <c r="B29" t="s">
+        <v>221</v>
+      </c>
+      <c r="D29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29">
+        <v>735</v>
+      </c>
+      <c r="G29">
+        <v>270</v>
+      </c>
+      <c r="H29">
+        <v>625</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>7323</v>
+      </c>
+      <c r="K29">
+        <v>735</v>
+      </c>
+      <c r="L29">
+        <v>735</v>
+      </c>
+      <c r="Q29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>11137</v>
+      </c>
+      <c r="B30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30">
+        <v>490</v>
+      </c>
+      <c r="G30">
+        <v>180</v>
+      </c>
+      <c r="H30">
+        <v>425</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>7323</v>
+      </c>
+      <c r="K30">
+        <v>490</v>
+      </c>
+      <c r="L30">
+        <v>490</v>
+      </c>
+      <c r="Q30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>11138</v>
+      </c>
+      <c r="B31" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31">
+        <v>550</v>
+      </c>
+      <c r="G31">
+        <v>235</v>
+      </c>
+      <c r="H31">
+        <v>475</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>7323</v>
+      </c>
+      <c r="K31">
+        <v>550</v>
+      </c>
+      <c r="L31">
+        <v>550</v>
+      </c>
+      <c r="Q31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>11139</v>
+      </c>
+      <c r="B32" t="s">
+        <v>218</v>
+      </c>
+      <c r="D32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32">
+        <v>125</v>
+      </c>
+      <c r="G32">
+        <v>45</v>
+      </c>
+      <c r="H32">
+        <v>105</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>7323</v>
+      </c>
+      <c r="K32">
+        <v>125</v>
+      </c>
+      <c r="L32">
+        <v>125</v>
+      </c>
+      <c r="Q32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>11140</v>
+      </c>
+      <c r="B33" t="s">
+        <v>217</v>
+      </c>
+      <c r="D33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <v>375</v>
+      </c>
+      <c r="G33">
+        <v>140</v>
+      </c>
+      <c r="H33">
+        <v>288</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>7323</v>
+      </c>
+      <c r="K33">
+        <v>375</v>
+      </c>
+      <c r="L33">
+        <v>375</v>
+      </c>
+      <c r="Q33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>11141</v>
+      </c>
+      <c r="B34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D34" t="s">
+        <v>215</v>
+      </c>
+      <c r="E34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34">
+        <v>250</v>
+      </c>
+      <c r="G34">
+        <v>115</v>
+      </c>
+      <c r="H34">
+        <v>210</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>7418</v>
+      </c>
+      <c r="K34">
+        <v>250</v>
+      </c>
+      <c r="L34">
+        <v>250</v>
+      </c>
+      <c r="Q34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>11142</v>
+      </c>
+      <c r="B35" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35">
+        <v>1699</v>
+      </c>
+      <c r="G35">
+        <v>750</v>
+      </c>
+      <c r="H35">
+        <v>1335</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>7323</v>
+      </c>
+      <c r="K35">
+        <v>1699</v>
+      </c>
+      <c r="L35">
+        <v>1699</v>
+      </c>
+      <c r="Q35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>11143</v>
+      </c>
+      <c r="B36" t="s">
+        <v>213</v>
+      </c>
+      <c r="D36" t="s">
+        <v>177</v>
+      </c>
+      <c r="E36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36">
+        <v>5850</v>
+      </c>
+      <c r="G36">
+        <v>3400</v>
+      </c>
+      <c r="H36">
+        <v>4680</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>7323</v>
+      </c>
+      <c r="K36">
+        <v>5850</v>
+      </c>
+      <c r="L36">
+        <v>5850</v>
+      </c>
+      <c r="Q36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>11144</v>
+      </c>
+      <c r="B37" t="s">
+        <v>212</v>
+      </c>
+      <c r="D37" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37">
+        <v>595</v>
+      </c>
+      <c r="G37">
+        <v>280</v>
+      </c>
+      <c r="H37">
+        <v>465</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>7323</v>
+      </c>
+      <c r="K37">
+        <v>595</v>
+      </c>
+      <c r="L37">
+        <v>595</v>
+      </c>
+      <c r="Q37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>11145</v>
+      </c>
+      <c r="B38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D38" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38">
+        <v>140</v>
+      </c>
+      <c r="G38">
+        <v>65</v>
+      </c>
+      <c r="H38">
+        <v>110</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>8215</v>
+      </c>
+      <c r="K38">
+        <v>140</v>
+      </c>
+      <c r="L38">
+        <v>140</v>
+      </c>
+      <c r="Q38">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>11146</v>
+      </c>
+      <c r="B39" t="s">
+        <v>210</v>
+      </c>
+      <c r="D39" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39">
+        <v>140</v>
+      </c>
+      <c r="G39">
+        <v>65</v>
+      </c>
+      <c r="H39">
+        <v>105</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>8215</v>
+      </c>
+      <c r="K39">
+        <v>140</v>
+      </c>
+      <c r="L39">
+        <v>140</v>
+      </c>
+      <c r="Q39">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>11147</v>
+      </c>
+      <c r="B40" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40">
+        <v>450</v>
+      </c>
+      <c r="G40">
+        <v>210</v>
+      </c>
+      <c r="H40">
+        <v>395</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>7323</v>
+      </c>
+      <c r="K40">
+        <v>450</v>
+      </c>
+      <c r="L40">
+        <v>450</v>
+      </c>
+      <c r="Q40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>11148</v>
+      </c>
+      <c r="B41" t="s">
+        <v>208</v>
+      </c>
+      <c r="D41" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41">
+        <v>100</v>
+      </c>
+      <c r="G41">
+        <v>50</v>
+      </c>
+      <c r="H41">
+        <v>90</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>8215</v>
+      </c>
+      <c r="K41">
+        <v>100</v>
+      </c>
+      <c r="L41">
+        <v>100</v>
+      </c>
+      <c r="Q41">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>11149</v>
+      </c>
+      <c r="B42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42">
+        <v>395</v>
+      </c>
+      <c r="G42">
+        <v>190</v>
+      </c>
+      <c r="H42">
+        <v>345</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>7615</v>
+      </c>
+      <c r="K42">
+        <v>395</v>
+      </c>
+      <c r="L42">
+        <v>395</v>
+      </c>
+      <c r="Q42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>11150</v>
+      </c>
+      <c r="B43" t="s">
+        <v>206</v>
+      </c>
+      <c r="D43" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43">
+        <v>440</v>
+      </c>
+      <c r="G43">
+        <v>215</v>
+      </c>
+      <c r="H43">
+        <v>375</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>7615</v>
+      </c>
+      <c r="K43">
+        <v>440</v>
+      </c>
+      <c r="L43">
+        <v>440</v>
+      </c>
+      <c r="Q43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>11151</v>
+      </c>
+      <c r="B44" t="s">
+        <v>205</v>
+      </c>
+      <c r="D44" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44">
+        <v>150</v>
+      </c>
+      <c r="G44">
+        <v>65</v>
+      </c>
+      <c r="H44">
+        <v>129</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>7615</v>
+      </c>
+      <c r="K44">
+        <v>150</v>
+      </c>
+      <c r="L44">
+        <v>150</v>
+      </c>
+      <c r="Q44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>11152</v>
+      </c>
+      <c r="B45" t="s">
+        <v>204</v>
+      </c>
+      <c r="D45" t="s">
+        <v>140</v>
+      </c>
+      <c r="E45" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45">
+        <v>350</v>
+      </c>
+      <c r="G45">
+        <v>170</v>
+      </c>
+      <c r="H45">
+        <v>270</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>7615</v>
+      </c>
+      <c r="K45">
+        <v>350</v>
+      </c>
+      <c r="L45">
+        <v>350</v>
+      </c>
+      <c r="Q45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>11153</v>
+      </c>
+      <c r="B46" t="s">
+        <v>203</v>
+      </c>
+      <c r="D46" t="s">
+        <v>140</v>
+      </c>
+      <c r="E46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46">
+        <v>345</v>
+      </c>
+      <c r="G46">
+        <v>145</v>
+      </c>
+      <c r="H46">
+        <v>295</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>7615</v>
+      </c>
+      <c r="K46">
+        <v>345</v>
+      </c>
+      <c r="L46">
+        <v>345</v>
+      </c>
+      <c r="Q46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>11154</v>
+      </c>
+      <c r="B47" t="s">
+        <v>202</v>
+      </c>
+      <c r="D47" t="s">
+        <v>200</v>
+      </c>
+      <c r="E47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47">
+        <v>340</v>
+      </c>
+      <c r="G47">
+        <v>155</v>
+      </c>
+      <c r="H47">
+        <v>310</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>7615</v>
+      </c>
+      <c r="K47">
+        <v>340</v>
+      </c>
+      <c r="L47">
+        <v>340</v>
+      </c>
+      <c r="Q47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>11155</v>
+      </c>
+      <c r="B48" t="s">
+        <v>201</v>
+      </c>
+      <c r="D48" t="s">
+        <v>200</v>
+      </c>
+      <c r="E48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48">
+        <v>290</v>
+      </c>
+      <c r="G48">
+        <v>135</v>
+      </c>
+      <c r="H48">
+        <v>260</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>7615</v>
+      </c>
+      <c r="K48">
+        <v>290</v>
+      </c>
+      <c r="L48">
+        <v>290</v>
+      </c>
+      <c r="Q48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>11156</v>
+      </c>
+      <c r="B49" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49">
+        <v>160</v>
+      </c>
+      <c r="G49">
+        <v>70</v>
+      </c>
+      <c r="H49">
+        <v>140</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>7615</v>
+      </c>
+      <c r="K49">
+        <v>160</v>
+      </c>
+      <c r="L49">
+        <v>160</v>
+      </c>
+      <c r="Q49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>11157</v>
+      </c>
+      <c r="B50" t="s">
+        <v>198</v>
+      </c>
+      <c r="D50" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50">
+        <v>420</v>
+      </c>
+      <c r="G50">
+        <v>200</v>
+      </c>
+      <c r="H50">
+        <v>365</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>7615</v>
+      </c>
+      <c r="K50">
+        <v>420</v>
+      </c>
+      <c r="L50">
+        <v>420</v>
+      </c>
+      <c r="Q50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>11158</v>
+      </c>
+      <c r="B51" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51">
+        <v>650</v>
+      </c>
+      <c r="G51">
+        <v>300</v>
+      </c>
+      <c r="H51">
+        <v>580</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>7615</v>
+      </c>
+      <c r="K51">
+        <v>650</v>
+      </c>
+      <c r="L51">
+        <v>650</v>
+      </c>
+      <c r="Q51">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>11159</v>
+      </c>
+      <c r="B52" t="s">
+        <v>196</v>
+      </c>
+      <c r="D52" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52">
+        <v>440</v>
+      </c>
+      <c r="G52">
+        <v>200</v>
+      </c>
+      <c r="H52">
+        <v>385</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>7615</v>
+      </c>
+      <c r="K52">
+        <v>440</v>
+      </c>
+      <c r="L52">
+        <v>440</v>
+      </c>
+      <c r="Q52">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>11160</v>
+      </c>
+      <c r="B53" t="s">
+        <v>195</v>
+      </c>
+      <c r="D53" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53">
+        <v>615</v>
+      </c>
+      <c r="G53">
+        <v>280</v>
+      </c>
+      <c r="H53">
+        <v>525</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>7615</v>
+      </c>
+      <c r="K53">
+        <v>615</v>
+      </c>
+      <c r="L53">
+        <v>615</v>
+      </c>
+      <c r="Q53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>11161</v>
+      </c>
+      <c r="B54" t="s">
+        <v>194</v>
+      </c>
+      <c r="D54" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54">
+        <v>695</v>
+      </c>
+      <c r="G54">
+        <v>325</v>
+      </c>
+      <c r="H54">
+        <v>590</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>7615</v>
+      </c>
+      <c r="K54">
+        <v>695</v>
+      </c>
+      <c r="L54">
+        <v>695</v>
+      </c>
+      <c r="Q54">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>11162</v>
+      </c>
+      <c r="B55" t="s">
+        <v>193</v>
+      </c>
+      <c r="D55" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55">
+        <v>930</v>
+      </c>
+      <c r="G55">
+        <v>450</v>
+      </c>
+      <c r="H55">
+        <v>795</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>7615</v>
+      </c>
+      <c r="K55">
+        <v>930</v>
+      </c>
+      <c r="L55">
+        <v>930</v>
+      </c>
+      <c r="Q55">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>11163</v>
+      </c>
+      <c r="B56" t="s">
+        <v>192</v>
+      </c>
+      <c r="D56" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56">
+        <v>885</v>
+      </c>
+      <c r="G56">
+        <v>400</v>
+      </c>
+      <c r="H56">
+        <v>755</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>7615</v>
+      </c>
+      <c r="K56">
+        <v>885</v>
+      </c>
+      <c r="L56">
+        <v>885</v>
+      </c>
+      <c r="Q56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>11164</v>
+      </c>
+      <c r="B57" t="s">
+        <v>191</v>
+      </c>
+      <c r="D57" t="s">
+        <v>137</v>
+      </c>
+      <c r="E57" t="s">
+        <v>32</v>
+      </c>
+      <c r="F57">
+        <v>385</v>
+      </c>
+      <c r="G57">
+        <v>165</v>
+      </c>
+      <c r="H57">
+        <v>325</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>7615</v>
+      </c>
+      <c r="K57">
+        <v>385</v>
+      </c>
+      <c r="L57">
+        <v>385</v>
+      </c>
+      <c r="Q57">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>11165</v>
+      </c>
+      <c r="B58" t="s">
+        <v>190</v>
+      </c>
+      <c r="D58" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" t="s">
+        <v>32</v>
+      </c>
+      <c r="F58">
+        <v>280</v>
+      </c>
+      <c r="G58">
+        <v>125</v>
+      </c>
+      <c r="H58">
+        <v>250</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>7615</v>
+      </c>
+      <c r="K58">
+        <v>280</v>
+      </c>
+      <c r="L58">
+        <v>280</v>
+      </c>
+      <c r="Q58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>11166</v>
+      </c>
+      <c r="B59" t="s">
+        <v>189</v>
+      </c>
+      <c r="D59" t="s">
+        <v>137</v>
+      </c>
+      <c r="E59" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59">
+        <v>250</v>
+      </c>
+      <c r="G59">
+        <v>115</v>
+      </c>
+      <c r="H59">
+        <v>220</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>7615</v>
+      </c>
+      <c r="K59">
+        <v>250</v>
+      </c>
+      <c r="L59">
+        <v>250</v>
+      </c>
+      <c r="Q59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>11167</v>
+      </c>
+      <c r="B60" t="s">
+        <v>188</v>
+      </c>
+      <c r="D60" t="s">
+        <v>187</v>
+      </c>
+      <c r="E60" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60">
+        <v>330</v>
+      </c>
+      <c r="G60">
+        <v>150</v>
+      </c>
+      <c r="H60">
+        <v>279</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>3918</v>
+      </c>
+      <c r="K60">
+        <v>330</v>
+      </c>
+      <c r="L60">
+        <v>330</v>
+      </c>
+      <c r="Q60">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>11168</v>
+      </c>
+      <c r="B61" t="s">
+        <v>186</v>
+      </c>
+      <c r="D61" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61">
+        <v>250</v>
+      </c>
+      <c r="G61">
+        <v>115</v>
+      </c>
+      <c r="H61">
+        <v>220</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>7615</v>
+      </c>
+      <c r="K61">
+        <v>250</v>
+      </c>
+      <c r="L61">
+        <v>250</v>
+      </c>
+      <c r="Q61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>11169</v>
+      </c>
+      <c r="B62" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62" t="s">
+        <v>137</v>
+      </c>
+      <c r="E62" t="s">
+        <v>32</v>
+      </c>
+      <c r="F62">
+        <v>360</v>
+      </c>
+      <c r="G62">
+        <v>165</v>
+      </c>
+      <c r="H62">
+        <v>325</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>7615</v>
+      </c>
+      <c r="K62">
+        <v>360</v>
+      </c>
+      <c r="L62">
+        <v>360</v>
+      </c>
+      <c r="Q62">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>11170</v>
+      </c>
+      <c r="B63" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63" t="s">
+        <v>137</v>
+      </c>
+      <c r="E63" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63">
+        <v>400</v>
+      </c>
+      <c r="G63">
+        <v>200</v>
+      </c>
+      <c r="H63">
+        <v>290</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>7615</v>
+      </c>
+      <c r="K63">
+        <v>400</v>
+      </c>
+      <c r="L63">
+        <v>400</v>
+      </c>
+      <c r="Q63">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>11171</v>
+      </c>
+      <c r="B64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D64" t="s">
+        <v>137</v>
+      </c>
+      <c r="E64" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64">
+        <v>300</v>
+      </c>
+      <c r="G64">
+        <v>150</v>
+      </c>
+      <c r="H64">
+        <v>245</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>7615</v>
+      </c>
+      <c r="K64">
+        <v>300</v>
+      </c>
+      <c r="L64">
+        <v>300</v>
+      </c>
+      <c r="Q64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>11172</v>
+      </c>
+      <c r="B65" t="s">
+        <v>182</v>
+      </c>
+      <c r="D65" t="s">
+        <v>137</v>
+      </c>
+      <c r="E65" t="s">
+        <v>32</v>
+      </c>
+      <c r="F65">
+        <v>210</v>
+      </c>
+      <c r="G65">
+        <v>100</v>
+      </c>
+      <c r="H65">
+        <v>185</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>7615</v>
+      </c>
+      <c r="K65">
+        <v>210</v>
+      </c>
+      <c r="L65">
+        <v>210</v>
+      </c>
+      <c r="Q65">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>11173</v>
+      </c>
+      <c r="B66" t="s">
+        <v>181</v>
+      </c>
+      <c r="D66" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66">
+        <v>930</v>
+      </c>
+      <c r="G66">
+        <v>490</v>
+      </c>
+      <c r="H66">
+        <v>744</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>7323</v>
+      </c>
+      <c r="K66">
+        <v>930</v>
+      </c>
+      <c r="L66">
+        <v>930</v>
+      </c>
+      <c r="Q66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>11174</v>
+      </c>
+      <c r="B67" t="s">
+        <v>180</v>
+      </c>
+      <c r="D67" t="s">
+        <v>137</v>
+      </c>
+      <c r="E67" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67">
+        <v>160</v>
+      </c>
+      <c r="G67">
+        <v>90</v>
+      </c>
+      <c r="H67">
+        <v>144</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>9613</v>
+      </c>
+      <c r="K67">
+        <v>160</v>
+      </c>
+      <c r="L67">
+        <v>160</v>
+      </c>
+      <c r="Q67">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>11175</v>
+      </c>
+      <c r="B68" t="s">
+        <v>179</v>
+      </c>
+      <c r="D68" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68">
+        <v>170</v>
+      </c>
+      <c r="G68">
+        <v>100</v>
+      </c>
+      <c r="H68">
+        <v>149</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>9613</v>
+      </c>
+      <c r="K68">
+        <v>170</v>
+      </c>
+      <c r="L68">
+        <v>170</v>
+      </c>
+      <c r="Q68">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>11176</v>
+      </c>
+      <c r="B69" t="s">
+        <v>178</v>
+      </c>
+      <c r="D69" t="s">
+        <v>177</v>
+      </c>
+      <c r="E69" t="s">
+        <v>32</v>
+      </c>
+      <c r="F69">
+        <v>725</v>
+      </c>
+      <c r="G69">
+        <v>425</v>
+      </c>
+      <c r="H69">
+        <v>550</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>761510</v>
+      </c>
+      <c r="K69">
+        <v>725</v>
+      </c>
+      <c r="L69">
+        <v>725</v>
+      </c>
+      <c r="Q69">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>11177</v>
+      </c>
+      <c r="B70" t="s">
+        <v>176</v>
+      </c>
+      <c r="D70" t="s">
+        <v>137</v>
+      </c>
+      <c r="E70" t="s">
+        <v>32</v>
+      </c>
+      <c r="F70">
+        <v>50</v>
+      </c>
+      <c r="G70">
+        <v>30</v>
+      </c>
+      <c r="H70">
+        <v>40</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>8211</v>
+      </c>
+      <c r="K70">
+        <v>50</v>
+      </c>
+      <c r="L70">
+        <v>50</v>
+      </c>
+      <c r="Q70">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>11178</v>
+      </c>
+      <c r="B71" t="s">
+        <v>175</v>
+      </c>
+      <c r="D71" t="s">
+        <v>137</v>
+      </c>
+      <c r="E71" t="s">
+        <v>32</v>
+      </c>
+      <c r="F71">
+        <v>700</v>
+      </c>
+      <c r="G71">
+        <v>340</v>
+      </c>
+      <c r="H71">
+        <v>595</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>3924</v>
+      </c>
+      <c r="K71">
+        <v>700</v>
+      </c>
+      <c r="L71">
+        <v>700</v>
+      </c>
+      <c r="Q71">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>11179</v>
+      </c>
+      <c r="B72" t="s">
+        <v>174</v>
+      </c>
+      <c r="D72" t="s">
+        <v>137</v>
+      </c>
+      <c r="E72" t="s">
+        <v>32</v>
+      </c>
+      <c r="F72">
+        <v>750</v>
+      </c>
+      <c r="G72">
+        <v>375</v>
+      </c>
+      <c r="H72">
+        <v>675</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>7323</v>
+      </c>
+      <c r="K72">
+        <v>750</v>
+      </c>
+      <c r="L72">
+        <v>750</v>
+      </c>
+      <c r="Q72">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>11180</v>
+      </c>
+      <c r="B73" t="s">
+        <v>173</v>
+      </c>
+      <c r="D73" t="s">
+        <v>137</v>
+      </c>
+      <c r="E73" t="s">
+        <v>32</v>
+      </c>
+      <c r="F73">
+        <v>845</v>
+      </c>
+      <c r="G73">
+        <v>425</v>
+      </c>
+      <c r="H73">
+        <v>760</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>7323</v>
+      </c>
+      <c r="K73">
+        <v>845</v>
+      </c>
+      <c r="L73">
+        <v>845</v>
+      </c>
+      <c r="Q73">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>11181</v>
+      </c>
+      <c r="B74" t="s">
+        <v>172</v>
+      </c>
+      <c r="D74" t="s">
+        <v>137</v>
+      </c>
+      <c r="E74" t="s">
+        <v>32</v>
+      </c>
+      <c r="F74">
+        <v>299</v>
+      </c>
+      <c r="G74">
+        <v>135</v>
+      </c>
+      <c r="H74">
+        <v>240</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>7323</v>
+      </c>
+      <c r="K74">
+        <v>299</v>
+      </c>
+      <c r="L74">
+        <v>299</v>
+      </c>
+      <c r="Q74">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>11182</v>
+      </c>
+      <c r="B75" t="s">
+        <v>171</v>
+      </c>
+      <c r="D75" t="s">
+        <v>142</v>
+      </c>
+      <c r="E75" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75">
+        <v>699</v>
+      </c>
+      <c r="G75">
+        <v>195</v>
+      </c>
+      <c r="H75">
+        <v>525</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>392410</v>
+      </c>
+      <c r="K75">
+        <v>699</v>
+      </c>
+      <c r="L75">
+        <v>699</v>
+      </c>
+      <c r="Q75">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>11183</v>
+      </c>
+      <c r="B76" t="s">
+        <v>170</v>
+      </c>
+      <c r="D76" t="s">
+        <v>140</v>
+      </c>
+      <c r="E76" t="s">
+        <v>32</v>
+      </c>
+      <c r="F76">
+        <v>565</v>
+      </c>
+      <c r="G76">
+        <v>220</v>
+      </c>
+      <c r="H76">
+        <v>445</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>3924</v>
+      </c>
+      <c r="K76">
+        <v>565</v>
+      </c>
+      <c r="L76">
+        <v>565</v>
+      </c>
+      <c r="Q76">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>11184</v>
+      </c>
+      <c r="B77" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77" t="s">
+        <v>142</v>
+      </c>
+      <c r="E77" t="s">
+        <v>32</v>
+      </c>
+      <c r="F77">
+        <v>299</v>
+      </c>
+      <c r="G77">
+        <v>123.48</v>
+      </c>
+      <c r="H77">
+        <v>245</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>3924</v>
+      </c>
+      <c r="K77">
+        <v>299</v>
+      </c>
+      <c r="L77">
+        <v>299</v>
+      </c>
+      <c r="Q77">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>11185</v>
+      </c>
+      <c r="B78" t="s">
+        <v>168</v>
+      </c>
+      <c r="D78" t="s">
+        <v>145</v>
+      </c>
+      <c r="E78" t="s">
+        <v>32</v>
+      </c>
+      <c r="F78">
+        <v>699</v>
+      </c>
+      <c r="G78">
+        <v>310</v>
+      </c>
+      <c r="H78">
+        <v>540</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>73239390</v>
+      </c>
+      <c r="K78">
+        <v>699</v>
+      </c>
+      <c r="L78">
+        <v>699</v>
+      </c>
+      <c r="Q78">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>11186</v>
+      </c>
+      <c r="B79" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" t="s">
+        <v>140</v>
+      </c>
+      <c r="E79" t="s">
+        <v>32</v>
+      </c>
+      <c r="F79">
+        <v>325</v>
+      </c>
+      <c r="G79">
+        <v>122.5</v>
+      </c>
+      <c r="H79">
+        <v>249</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>96039000</v>
+      </c>
+      <c r="K79">
+        <v>325</v>
+      </c>
+      <c r="L79">
+        <v>325</v>
+      </c>
+      <c r="Q79">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>11187</v>
+      </c>
+      <c r="B80" t="s">
+        <v>166</v>
+      </c>
+      <c r="D80" t="s">
+        <v>145</v>
+      </c>
+      <c r="E80" t="s">
+        <v>32</v>
+      </c>
+      <c r="F80">
+        <v>1099</v>
+      </c>
+      <c r="G80">
+        <v>350.84</v>
+      </c>
+      <c r="H80">
+        <v>665</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>392410</v>
+      </c>
+      <c r="K80">
+        <v>1099</v>
+      </c>
+      <c r="L80">
+        <v>1099</v>
+      </c>
+      <c r="Q80">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>11188</v>
+      </c>
+      <c r="B81" t="s">
+        <v>165</v>
+      </c>
+      <c r="D81" t="s">
+        <v>137</v>
+      </c>
+      <c r="E81" t="s">
+        <v>32</v>
+      </c>
+      <c r="F81">
+        <v>299</v>
+      </c>
+      <c r="G81">
+        <v>120</v>
+      </c>
+      <c r="H81">
+        <v>255</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>8211</v>
+      </c>
+      <c r="K81">
+        <v>299</v>
+      </c>
+      <c r="L81">
+        <v>299</v>
+      </c>
+      <c r="Q81">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>11189</v>
+      </c>
+      <c r="B82" t="s">
+        <v>164</v>
+      </c>
+      <c r="D82" t="s">
+        <v>137</v>
+      </c>
+      <c r="E82" t="s">
+        <v>32</v>
+      </c>
+      <c r="F82">
+        <v>349</v>
+      </c>
+      <c r="G82">
+        <v>110</v>
+      </c>
+      <c r="H82">
+        <v>275</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>3924</v>
+      </c>
+      <c r="K82">
+        <v>349</v>
+      </c>
+      <c r="L82">
+        <v>349</v>
+      </c>
+      <c r="Q82">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>11190</v>
+      </c>
+      <c r="B83" t="s">
+        <v>163</v>
+      </c>
+      <c r="D83" t="s">
+        <v>137</v>
+      </c>
+      <c r="E83" t="s">
+        <v>32</v>
+      </c>
+      <c r="F83">
+        <v>1199</v>
+      </c>
+      <c r="G83">
+        <v>685.02</v>
+      </c>
+      <c r="H83">
+        <v>1020</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>8215</v>
+      </c>
+      <c r="K83">
+        <v>1199</v>
+      </c>
+      <c r="L83">
+        <v>1199</v>
+      </c>
+      <c r="Q83">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>11192</v>
+      </c>
+      <c r="B84" t="s">
+        <v>162</v>
+      </c>
+      <c r="D84" t="s">
+        <v>140</v>
+      </c>
+      <c r="E84" t="s">
+        <v>32</v>
+      </c>
+      <c r="F84">
+        <v>149</v>
+      </c>
+      <c r="G84">
+        <v>70</v>
+      </c>
+      <c r="H84">
+        <v>129</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>3924</v>
+      </c>
+      <c r="K84">
+        <v>149</v>
+      </c>
+      <c r="L84">
+        <v>149</v>
+      </c>
+      <c r="Q84">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>11193</v>
+      </c>
+      <c r="B85" t="s">
+        <v>161</v>
+      </c>
+      <c r="D85" t="s">
+        <v>137</v>
+      </c>
+      <c r="E85" t="s">
+        <v>32</v>
+      </c>
+      <c r="F85">
+        <v>365</v>
+      </c>
+      <c r="G85">
+        <v>130</v>
+      </c>
+      <c r="H85">
+        <v>265</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>7323</v>
+      </c>
+      <c r="K85">
+        <v>365</v>
+      </c>
+      <c r="L85">
+        <v>365</v>
+      </c>
+      <c r="Q85">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>11194</v>
+      </c>
+      <c r="B86" t="s">
+        <v>160</v>
+      </c>
+      <c r="D86" t="s">
+        <v>137</v>
+      </c>
+      <c r="E86" t="s">
+        <v>32</v>
+      </c>
+      <c r="F86">
+        <v>399</v>
+      </c>
+      <c r="G86">
+        <v>155</v>
+      </c>
+      <c r="H86">
+        <v>310</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>392410</v>
+      </c>
+      <c r="K86">
+        <v>399</v>
+      </c>
+      <c r="L86">
+        <v>399</v>
+      </c>
+      <c r="Q86">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>11195</v>
+      </c>
+      <c r="B87" t="s">
+        <v>159</v>
+      </c>
+      <c r="D87" t="s">
+        <v>140</v>
+      </c>
+      <c r="E87" t="s">
+        <v>32</v>
+      </c>
+      <c r="F87">
+        <v>499</v>
+      </c>
+      <c r="G87">
+        <v>174.44</v>
+      </c>
+      <c r="H87">
+        <v>356</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>96039000</v>
+      </c>
+      <c r="K87">
+        <v>499</v>
+      </c>
+      <c r="L87">
+        <v>499</v>
+      </c>
+      <c r="Q87">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>11196</v>
+      </c>
+      <c r="B88" t="s">
+        <v>158</v>
+      </c>
+      <c r="D88" t="s">
+        <v>140</v>
+      </c>
+      <c r="E88" t="s">
+        <v>32</v>
+      </c>
+      <c r="F88">
+        <v>399</v>
+      </c>
+      <c r="G88">
+        <v>146.02000000000001</v>
+      </c>
+      <c r="H88">
+        <v>299</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>96039000</v>
+      </c>
+      <c r="K88">
+        <v>399</v>
+      </c>
+      <c r="L88">
+        <v>399</v>
+      </c>
+      <c r="Q88">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>11197</v>
+      </c>
+      <c r="B89" t="s">
+        <v>157</v>
+      </c>
+      <c r="D89" t="s">
+        <v>137</v>
+      </c>
+      <c r="E89" t="s">
+        <v>32</v>
+      </c>
+      <c r="F89">
+        <v>199</v>
+      </c>
+      <c r="G89">
+        <v>96.04</v>
+      </c>
+      <c r="H89">
+        <v>165</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>8215</v>
+      </c>
+      <c r="K89">
+        <v>199</v>
+      </c>
+      <c r="L89">
+        <v>199</v>
+      </c>
+      <c r="Q89">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>11198</v>
+      </c>
+      <c r="B90" t="s">
+        <v>156</v>
+      </c>
+      <c r="D90" t="s">
+        <v>137</v>
+      </c>
+      <c r="E90" t="s">
+        <v>32</v>
+      </c>
+      <c r="F90">
+        <v>199</v>
+      </c>
+      <c r="G90">
+        <v>90</v>
+      </c>
+      <c r="H90">
+        <v>175</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>732393</v>
+      </c>
+      <c r="K90">
+        <v>199</v>
+      </c>
+      <c r="L90">
+        <v>199</v>
+      </c>
+      <c r="Q90">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>11199</v>
+      </c>
+      <c r="B91" t="s">
+        <v>155</v>
+      </c>
+      <c r="D91" t="s">
+        <v>137</v>
+      </c>
+      <c r="E91" t="s">
+        <v>32</v>
+      </c>
+      <c r="F91">
+        <v>199</v>
+      </c>
+      <c r="G91">
+        <v>88</v>
+      </c>
+      <c r="H91">
+        <v>180</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>9613</v>
+      </c>
+      <c r="K91">
+        <v>199</v>
+      </c>
+      <c r="L91">
+        <v>199</v>
+      </c>
+      <c r="Q91">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>11200</v>
+      </c>
+      <c r="B92" t="s">
+        <v>154</v>
+      </c>
+      <c r="D92" t="s">
+        <v>137</v>
+      </c>
+      <c r="E92" t="s">
+        <v>32</v>
+      </c>
+      <c r="F92">
+        <v>225</v>
+      </c>
+      <c r="G92">
+        <v>95</v>
+      </c>
+      <c r="H92">
+        <v>199</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>96138090</v>
+      </c>
+      <c r="K92">
+        <v>225</v>
+      </c>
+      <c r="L92">
+        <v>225</v>
+      </c>
+      <c r="Q92">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>11201</v>
+      </c>
+      <c r="B93" t="s">
+        <v>153</v>
+      </c>
+      <c r="D93" t="s">
+        <v>140</v>
+      </c>
+      <c r="E93" t="s">
+        <v>32</v>
+      </c>
+      <c r="F93">
+        <v>325</v>
+      </c>
+      <c r="G93">
+        <v>138</v>
+      </c>
+      <c r="H93">
+        <v>239</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>392410</v>
+      </c>
+      <c r="K93">
+        <v>325</v>
+      </c>
+      <c r="L93">
+        <v>325</v>
+      </c>
+      <c r="Q93">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>11202</v>
+      </c>
+      <c r="B94" t="s">
+        <v>152</v>
+      </c>
+      <c r="D94" t="s">
+        <v>137</v>
+      </c>
+      <c r="E94" t="s">
+        <v>32</v>
+      </c>
+      <c r="F94">
+        <v>99</v>
+      </c>
+      <c r="G94">
+        <v>30</v>
+      </c>
+      <c r="H94">
+        <v>85</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>8211</v>
+      </c>
+      <c r="K94">
+        <v>99</v>
+      </c>
+      <c r="L94">
+        <v>99</v>
+      </c>
+      <c r="Q94">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>11203</v>
+      </c>
+      <c r="B95" t="s">
+        <v>151</v>
+      </c>
+      <c r="D95" t="s">
+        <v>140</v>
+      </c>
+      <c r="E95" t="s">
+        <v>32</v>
+      </c>
+      <c r="F95">
+        <v>140</v>
+      </c>
+      <c r="G95">
+        <v>65</v>
+      </c>
+      <c r="H95">
+        <v>120</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>392410</v>
+      </c>
+      <c r="K95">
+        <v>140</v>
+      </c>
+      <c r="L95">
+        <v>140</v>
+      </c>
+      <c r="Q95">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>11204</v>
+      </c>
+      <c r="B96" t="s">
+        <v>150</v>
+      </c>
+      <c r="D96" t="s">
+        <v>137</v>
+      </c>
+      <c r="E96" t="s">
+        <v>32</v>
+      </c>
+      <c r="F96">
+        <v>299</v>
+      </c>
+      <c r="G96">
+        <v>125</v>
+      </c>
+      <c r="H96">
+        <v>249</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>8215</v>
+      </c>
+      <c r="K96">
+        <v>299</v>
+      </c>
+      <c r="L96">
+        <v>299</v>
+      </c>
+      <c r="Q96">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>11205</v>
+      </c>
+      <c r="B97" t="s">
+        <v>149</v>
+      </c>
+      <c r="D97" t="s">
+        <v>145</v>
+      </c>
+      <c r="E97" t="s">
+        <v>32</v>
+      </c>
+      <c r="F97">
+        <v>699</v>
+      </c>
+      <c r="G97">
+        <v>340</v>
+      </c>
+      <c r="H97">
+        <v>585</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>392310</v>
+      </c>
+      <c r="K97">
+        <v>699</v>
+      </c>
+      <c r="L97">
+        <v>699</v>
+      </c>
+      <c r="Q97">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>11206</v>
+      </c>
+      <c r="B98" t="s">
+        <v>148</v>
+      </c>
+      <c r="D98" t="s">
+        <v>137</v>
+      </c>
+      <c r="E98" t="s">
+        <v>32</v>
+      </c>
+      <c r="F98">
+        <v>199</v>
+      </c>
+      <c r="G98">
+        <v>100</v>
+      </c>
+      <c r="H98">
+        <v>170</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>732393</v>
+      </c>
+      <c r="K98">
+        <v>199</v>
+      </c>
+      <c r="L98">
+        <v>199</v>
+      </c>
+      <c r="Q98">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>11207</v>
+      </c>
+      <c r="B99" t="s">
+        <v>147</v>
+      </c>
+      <c r="D99" t="s">
+        <v>137</v>
+      </c>
+      <c r="E99" t="s">
+        <v>32</v>
+      </c>
+      <c r="F99">
+        <v>120</v>
+      </c>
+      <c r="G99">
+        <v>41.16</v>
+      </c>
+      <c r="H99">
+        <v>85</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>9613</v>
+      </c>
+      <c r="K99">
+        <v>120</v>
+      </c>
+      <c r="L99">
+        <v>120</v>
+      </c>
+      <c r="Q99">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>11208</v>
+      </c>
+      <c r="B100" t="s">
+        <v>146</v>
+      </c>
+      <c r="D100" t="s">
+        <v>145</v>
+      </c>
+      <c r="E100" t="s">
+        <v>32</v>
+      </c>
+      <c r="F100">
+        <v>150</v>
+      </c>
+      <c r="G100">
+        <v>54</v>
+      </c>
+      <c r="H100">
+        <v>125</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>961380</v>
+      </c>
+      <c r="K100">
+        <v>150</v>
+      </c>
+      <c r="L100">
+        <v>150</v>
+      </c>
+      <c r="Q100">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>11209</v>
+      </c>
+      <c r="B101" t="s">
+        <v>144</v>
+      </c>
+      <c r="D101" t="s">
+        <v>137</v>
+      </c>
+      <c r="E101" t="s">
+        <v>32</v>
+      </c>
+      <c r="F101">
+        <v>1599</v>
+      </c>
+      <c r="G101">
+        <v>733.04</v>
+      </c>
+      <c r="H101">
+        <v>1280</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>7323</v>
+      </c>
+      <c r="K101">
+        <v>1599</v>
+      </c>
+      <c r="L101">
+        <v>1599</v>
+      </c>
+      <c r="Q101">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>11210</v>
+      </c>
+      <c r="B102" t="s">
+        <v>143</v>
+      </c>
+      <c r="D102" t="s">
+        <v>142</v>
+      </c>
+      <c r="E102" t="s">
+        <v>32</v>
+      </c>
+      <c r="F102">
+        <v>499</v>
+      </c>
+      <c r="G102">
+        <v>154</v>
+      </c>
+      <c r="H102">
+        <v>280</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>392110</v>
+      </c>
+      <c r="K102">
+        <v>499</v>
+      </c>
+      <c r="L102">
+        <v>499</v>
+      </c>
+      <c r="Q102">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>11211</v>
+      </c>
+      <c r="B103" t="s">
+        <v>141</v>
+      </c>
+      <c r="D103" t="s">
+        <v>140</v>
+      </c>
+      <c r="E103" t="s">
+        <v>32</v>
+      </c>
+      <c r="F103">
+        <v>599</v>
+      </c>
+      <c r="G103">
+        <v>269.5</v>
+      </c>
+      <c r="H103">
+        <v>445</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>960390</v>
+      </c>
+      <c r="K103">
+        <v>599</v>
+      </c>
+      <c r="L103">
+        <v>599</v>
+      </c>
+      <c r="Q103">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>11212</v>
+      </c>
+      <c r="B104" t="s">
+        <v>139</v>
+      </c>
+      <c r="D104" t="s">
+        <v>137</v>
+      </c>
+      <c r="E104" t="s">
+        <v>32</v>
+      </c>
+      <c r="F104">
+        <v>599</v>
+      </c>
+      <c r="G104">
+        <v>240</v>
+      </c>
+      <c r="H104">
+        <v>465</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>3924</v>
+      </c>
+      <c r="K104">
+        <v>599</v>
+      </c>
+      <c r="L104">
+        <v>599</v>
+      </c>
+      <c r="Q104">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>11213</v>
+      </c>
+      <c r="B105" t="s">
+        <v>138</v>
+      </c>
+      <c r="D105" t="s">
+        <v>137</v>
+      </c>
+      <c r="E105" t="s">
+        <v>32</v>
+      </c>
+      <c r="F105">
+        <v>299</v>
+      </c>
+      <c r="G105">
+        <v>129</v>
+      </c>
+      <c r="H105">
+        <v>250</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>3924</v>
+      </c>
+      <c r="K105">
+        <v>299</v>
+      </c>
+      <c r="L105">
+        <v>299</v>
+      </c>
+      <c r="Q105">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>